--- a/biology/Médecine/1841_en_santé_et_médecine/1841_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1841_en_santé_et_médecine/1841_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1841_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1841_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1841 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1841_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1841_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4 avril : le président des États-Unis William Henry Harrison meurt des complications d'une pneumonie trente-deux jours seulement après son investiture[1].
-Ouverture de l'hôpital de Lapinlahti, premier hôpital psychiatrique de Finlande, construit dans le quartier de Lapinlahti à Helsinki en bord de mer et à proximité du cimetière d'Hietaniemi[2],[3].
-Ouverture de l'hôpital psychiatrique de Toronto. « D'abord situé dans une prison abandonnée, [il] est d'abord déménagé dans une aile des édifices du Parlement, puis finalement au 999, rue Queen[4] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4 avril : le président des États-Unis William Henry Harrison meurt des complications d'une pneumonie trente-deux jours seulement après son investiture.
+Ouverture de l'hôpital de Lapinlahti, premier hôpital psychiatrique de Finlande, construit dans le quartier de Lapinlahti à Helsinki en bord de mer et à proximité du cimetière d'Hietaniemi,.
+Ouverture de l'hôpital psychiatrique de Toronto. « D'abord situé dans une prison abandonnée, [il] est d'abord déménagé dans une aile des édifices du Parlement, puis finalement au 999, rue Queen ».</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1841_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1841_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>18 janvier : Albert Freeman Africanus King (mort en 1914), professeur d'obstétrique américain, d'origine britannique.
 7 mai : Gustave Le Bon (mort en 1931), médecin, anthropologue, psychologue social et sociologue français.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1841_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1841_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,13 +592,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12 février : Astley Paston Cooper (né en 1768), chirurgien anglais[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 février : Astley Paston Cooper (né en 1768), chirurgien anglais.
 23 mai : Franz Xaver von Baader (né en 1765), médecin, philosophe et théologien mystique allemand.
-1er juin : Nicolas Appert (né en 1749), inventeur, en 1795, d'un procédé de conservation des denrées périssables par la stérilisation par la chaleur, auquel on a donné son nom et qui marque une étape essentielle dans l'histoire de l'hygiène alimentaire et en particulier dans la lutte contre le scorbut des marins[6].
-6 juillet : Fortuné Eydoux (né en 1802), chirurgien de la Marine française[7].
-1er décembre : George Birkbeck (né en 1776), médecin britannique[8].
+1er juin : Nicolas Appert (né en 1749), inventeur, en 1795, d'un procédé de conservation des denrées périssables par la stérilisation par la chaleur, auquel on a donné son nom et qui marque une étape essentielle dans l'histoire de l'hygiène alimentaire et en particulier dans la lutte contre le scorbut des marins.
+6 juillet : Fortuné Eydoux (né en 1802), chirurgien de la Marine française.
+1er décembre : George Birkbeck (né en 1776), médecin britannique.
 </t>
         </is>
       </c>
